--- a/food/fd1.xlsx
+++ b/food/fd1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\1130\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 복리후생\2017년\3. 식당\2020년 식단표\1207\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="11.30" sheetId="3" r:id="rId1"/>
-    <sheet name="11.30(영)" sheetId="2" r:id="rId2"/>
+    <sheet name="12.7" sheetId="3" r:id="rId1"/>
+    <sheet name="12.7(영)" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
   <si>
     <t>석식</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -521,11 +521,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sungnyung</t>
+    <t>polished rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>월</t>
@@ -548,148 +545,147 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">11월30일 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12월1일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12월2일</t>
-  </si>
-  <si>
-    <t>12월3일</t>
-  </si>
-  <si>
-    <t>12월4일</t>
-  </si>
-  <si>
-    <t>차승원닭곰탕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">12월07일 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월08일</t>
+  </si>
+  <si>
+    <t>12월09일</t>
+  </si>
+  <si>
+    <t>12월10일</t>
+  </si>
+  <si>
+    <t>12월11일</t>
   </si>
   <si>
     <t>백미밥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>장터국밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나물비빔밥/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>온도토리묵채국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매생이국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란후라이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매생이전&amp;양념장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부커틀릿&amp;소스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿀닭감자조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은콩나물국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>충무식어묵무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이컨감자채볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메추리알곤약조림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>계란야채찜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자반고등어구이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니새송이볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>건파래볶음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑임자연근무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마푸실리범벅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠글우렁강된장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>애호박무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물파채무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄동겉절이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>들깨참나물무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로컬리두부무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>양배추쌈&amp;땅콩쌈장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>깍두기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬시래기양파초무침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단배추겉절이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈가래떡구이</t>
+    <t>*마파두부덮밥*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바지락순두부찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬지어묵국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근대된장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광양식직화떡불고기&amp;파채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵은지사태찜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스샐러드&amp;오리엔탈D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어쭈꾸미볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동찜닭&amp;납작당면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐풍가지튀김</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>온두부&amp;양념장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박범벅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차돌누들떡볶이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이시쫄면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>애느타리버섯볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양계란말이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이양파무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프무쌈말이&amp;땅콩소스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽈리멸치볶음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청포묵김가루무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시마채무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유채겉절이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추양파생채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누룽지튀김&amp;설탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋고추된장무침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나리무생채</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무겉절이</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -697,143 +693,134 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>호빵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>숭늉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀프모과차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지마구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chicken Soup</t>
-  </si>
-  <si>
-    <t>Chungmu Sik squid salad</t>
-  </si>
-  <si>
-    <t>Stir-fried Saesongi Mushroom</t>
-  </si>
-  <si>
-    <t>Grilled rice cake with cheese</t>
-  </si>
-  <si>
-    <t>acorn jelly vegetable soup</t>
-  </si>
-  <si>
-    <t>stir-fried spicy pork</t>
-  </si>
-  <si>
-    <t>Stir-fried Bacon Potato and Vegetables</t>
-  </si>
-  <si>
-    <t>stir-fried raisin</t>
-  </si>
-  <si>
-    <t>bean sprout wave debt instrument</t>
-  </si>
-  <si>
-    <t>Cabbage wrap</t>
-  </si>
-  <si>
-    <t> jangteo gukbap</t>
-  </si>
-  <si>
-    <t>Tofu cutlet</t>
-  </si>
-  <si>
-    <t>Boiled quail algonum</t>
-  </si>
-  <si>
-    <t>Black-fertile Natural Service Manual</t>
-  </si>
-  <si>
-    <t>Seasoned Cabbage</t>
-  </si>
-  <si>
-    <t>Diced Radish Kimchi</t>
-  </si>
-  <si>
-    <t> steamed bun</t>
-  </si>
-  <si>
-    <t>Seaweed Fulvescens Soup</t>
-  </si>
-  <si>
-    <t>Braised Honey Chicken Potato</t>
-  </si>
-  <si>
-    <t>Steamed egg and vegetables</t>
-  </si>
-  <si>
-    <t>Sweet potato pucilli Beombeok</t>
-  </si>
-  <si>
-    <t>Seasoned Chamnamul Slic sauce</t>
-  </si>
-  <si>
-    <t>Spicy Seafood Noodles</t>
-  </si>
-  <si>
-    <t> Chinese Quince Tea</t>
-  </si>
-  <si>
-    <t>clear bean sprout soup</t>
-  </si>
-  <si>
-    <t>Grilled Javan mackerel</t>
-  </si>
-  <si>
-    <t>broccoli tofu salad</t>
-  </si>
-  <si>
-    <t>single cabbage salad</t>
-  </si>
-  <si>
-    <t>Jimagu</t>
-  </si>
-  <si>
-    <t>polished rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t> Seasoned Cirsium Bibimbap/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>polished rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fried egg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seaweed fulvescens fancake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oolonggang Soybean paste</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpkin salad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>오라떼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>허니자몽티</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수수염차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오미자차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보리차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t> Clam and Soft Tofu Stew</t>
+  </si>
+  <si>
+    <t>Bulgogi Patties</t>
+  </si>
+  <si>
+    <t>Deep-fried Kkanpungi</t>
+  </si>
+  <si>
+    <t>Stir-fried Anetari Mushroom</t>
+  </si>
+  <si>
+    <t>Cheongpo-muk-muk-mugaru-muchim</t>
+  </si>
+  <si>
+    <t>fried nurungji</t>
   </si>
   <si>
     <t>kimchi</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honey Jamontti</t>
+  </si>
+  <si>
+    <t>Fish cake soup</t>
+  </si>
+  <si>
+    <t>Braised Pork with aged Kimchi</t>
+  </si>
+  <si>
+    <t>Braised tofu</t>
+  </si>
+  <si>
+    <t>Rolled Omelet</t>
+  </si>
+  <si>
+    <t>sliced sea tangle</t>
+  </si>
+  <si>
+    <t>green pepper paste seasoned with soybean paste</t>
+  </si>
+  <si>
+    <t>corn silk tea</t>
+  </si>
+  <si>
+    <t>Mapo Tofu with Rice</t>
+  </si>
+  <si>
+    <t>Doenjang-guk</t>
+  </si>
+  <si>
+    <t>pork cutlet salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Park Bum Buck</t>
+  </si>
+  <si>
+    <t>seasoned cucumber</t>
+  </si>
+  <si>
+    <t>geotjeori</t>
+  </si>
+  <si>
+    <t>Oratte</t>
+  </si>
+  <si>
+    <t>Sausage Stew</t>
+  </si>
+  <si>
+    <t>Stir-fried Squid</t>
+  </si>
+  <si>
+    <t>Chadol Noodle Tteokbokki</t>
+  </si>
+  <si>
+    <t>radish ssammari</t>
+  </si>
+  <si>
+    <t>Seasoned Bean Sprouts</t>
+  </si>
+  <si>
+    <t>Water parsley radish salad</t>
+  </si>
+  <si>
+    <t>Omija Tea</t>
+  </si>
+  <si>
+    <t>perilla seaweed soup</t>
+  </si>
+  <si>
+    <t>Andong-style Braised Spicy Chicken with Vegetables</t>
+  </si>
+  <si>
+    <t>Spicy Jjolmyeon</t>
+  </si>
+  <si>
+    <t>Stir-fried Ggwari anchovies</t>
+  </si>
+  <si>
+    <t>leek onion salad</t>
+  </si>
+  <si>
+    <t>Yeolmu Oejeoljeol</t>
+  </si>
+  <si>
+    <t>barley tea</t>
   </si>
 </sst>
 </file>
@@ -844,7 +831,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +1065,27 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="1훈떡볶이 R"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1112,7 +1120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1383,8 +1391,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1394,8 +1444,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,27 +1513,12 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,22 +1600,64 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1589,10 +1670,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="표준 2 2 2" xfId="2"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2372,7 +2454,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+      <selection activeCell="C24" sqref="C24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2387,41 +2469,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2433,10 +2515,10 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2444,216 +2526,218 @@
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>82</v>
+      <c r="F7" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="G8" s="63" t="s">
         <v>84</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="66" t="s">
         <v>89</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="67" t="s">
         <v>94</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="E11" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="G11" s="67" t="s">
         <v>99</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="G12" s="63" t="s">
         <v>104</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="63" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.75" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>113</v>
+      <c r="F14" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="69" t="s">
         <v>115</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2674,7 +2758,7 @@
     </row>
     <row r="17" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="39"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="10" t="s">
         <v>42</v>
       </c>
@@ -2693,7 +2777,7 @@
     </row>
     <row r="18" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="10" t="s">
         <v>47</v>
       </c>
@@ -2712,7 +2796,7 @@
     </row>
     <row r="19" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10" t="s">
         <v>52</v>
       </c>
@@ -2731,7 +2815,7 @@
     </row>
     <row r="20" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="10" t="s">
         <v>57</v>
       </c>
@@ -2750,7 +2834,7 @@
     </row>
     <row r="21" spans="1:7" ht="21" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="11" t="s">
         <v>39</v>
       </c>
@@ -2770,23 +2854,23 @@
     <row r="22" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
       <c r="A22" s="8"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
@@ -2835,7 +2919,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2851,41 +2935,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2897,17 +2981,17 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B5" s="45"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2925,185 +3009,187 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B6" s="46"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="18">
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="D6" s="18">
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="E6" s="18">
-        <v>44167</v>
+        <v>44174</v>
       </c>
       <c r="F6" s="18">
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="G6" s="18">
-        <v>44169</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" customHeight="1">
+      <c r="B8" s="43"/>
+      <c r="C8" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1">
+      <c r="B9" s="43"/>
+      <c r="C9" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D9" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="55" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B10" s="43"/>
+      <c r="C10" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="B11" s="43"/>
+      <c r="C11" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="B8" s="48"/>
-      <c r="C8" s="57" t="s">
+      <c r="E11" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="58" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B12" s="43"/>
+      <c r="C12" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B13" s="43"/>
+      <c r="C13" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1">
-      <c r="B9" s="48"/>
-      <c r="C9" s="58" t="s">
+      <c r="D13" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="58" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="27.75" customHeight="1">
+      <c r="B14" s="43"/>
+      <c r="C14" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="58" t="s">
+      <c r="D14" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="B15" s="44"/>
+      <c r="C15" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="B11" s="48"/>
-      <c r="C11" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="58" t="s">
+      <c r="D15" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="57" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="60" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B12" s="48"/>
-      <c r="C12" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B13" s="48"/>
-      <c r="C13" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.75" customHeight="1">
-      <c r="B14" s="48"/>
-      <c r="C14" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="49"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>145</v>
-      </c>
-    </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3123,7 +3209,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B17" s="51"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
@@ -3141,7 +3227,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B18" s="51"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
@@ -3159,7 +3245,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="21" hidden="1" customHeight="1">
-      <c r="B19" s="51"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
@@ -3177,7 +3263,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="B20" s="51"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
@@ -3195,7 +3281,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="21" hidden="1" customHeight="1" thickBot="1">
-      <c r="B21" s="51"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
@@ -3214,26 +3300,26 @@
     </row>
     <row r="22" spans="2:7" ht="31.5" customHeight="1" thickBot="1">
       <c r="B22" s="15"/>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="2:7" ht="14.25">
-      <c r="G27" s="25"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1"/>
@@ -3271,8 +3357,11 @@
     <mergeCell ref="C22:G22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" location="/entry/enko/4bb70a6c6e6144e1ada5d65c6d344449" display="https://en.dict.naver.com/ - /entry/enko/4bb70a6c6e6144e1ada5d65c6d344449"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>